--- a/淘宝互动小程序/淘宝小程序测试用例.xlsx
+++ b/淘宝互动小程序/淘宝小程序测试用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="223">
   <si>
     <t>测试编号</t>
   </si>
@@ -659,6 +659,108 @@
   </si>
   <si>
     <t>可正确修改配置信息</t>
+  </si>
+  <si>
+    <t>轮播图兼容性（更新)</t>
+  </si>
+  <si>
+    <t>各任务页的轮播图</t>
+  </si>
+  <si>
+    <t>ios(ipone xr ipone x ipone 12)，android</t>
+  </si>
+  <si>
+    <t>刚打开页面时轮播图显示页对比设计稿</t>
+  </si>
+  <si>
+    <t>随机显示当前显示页，且显示的当前页底部切换条为绿色</t>
+  </si>
+  <si>
+    <t>ios(ipone xr ipone x ipone 12)</t>
+  </si>
+  <si>
+    <t>向前/向后/快速滑动轮播图</t>
+  </si>
+  <si>
+    <t>当前显示的图片轮播条为绿色，未显示的均为白色</t>
+  </si>
+  <si>
+    <t>android(oppo 小米)</t>
+  </si>
+  <si>
+    <t>分享首次失效问题</t>
+  </si>
+  <si>
+    <t>ios/andriod</t>
+  </si>
+  <si>
+    <t>1.点击任务页分享，生成图
+2.分享给微信好友
+3.微信好友在淘宝中打开分享图</t>
+  </si>
+  <si>
+    <t>微信好友第二次在淘宝中打开分享图</t>
+  </si>
+  <si>
+    <t>1.好友在淘宝中第一次/第二次打开都能够弹出助力弹框</t>
+  </si>
+  <si>
+    <t>好友在淘宝中第一次打开分享链接弹不出弹框</t>
+  </si>
+  <si>
+    <t>首次打开小程序未获取昵称问题</t>
+  </si>
+  <si>
+    <t>小程序</t>
+  </si>
+  <si>
+    <t>1.首次扫描小程序二维码
+2.打开任务页任务一关注店铺</t>
+  </si>
+  <si>
+    <t>打开后台</t>
+  </si>
+  <si>
+    <t>用户信息能够展示昵称，任务完成情况，完成时间等正确信息</t>
+  </si>
+  <si>
+    <t>昵称显示undefind</t>
+  </si>
+  <si>
+    <t>扫描过一次二维码</t>
+  </si>
+  <si>
+    <t>第二次扫描二维码</t>
+  </si>
+  <si>
+    <t>能够获取到正确的信息</t>
+  </si>
+  <si>
+    <t>新添跳转功能</t>
+  </si>
+  <si>
+    <t>任务页</t>
+  </si>
+  <si>
+    <t>点击"夺冠618，赢取s90使用权"图</t>
+  </si>
+  <si>
+    <t>跳转至沃尔沃店铺s90使用权说明页</t>
+  </si>
+  <si>
+    <t>淘宝不提供图片跳转淘宝店铺页功能，不能实现</t>
+  </si>
+  <si>
+    <t>不予修复</t>
+  </si>
+  <si>
+    <t>页面字体更新</t>
+  </si>
+  <si>
+    <t>对比设计稿，小程序字体更新</t>
+  </si>
+  <si>
+    <t>与设计稿一致</t>
   </si>
 </sst>
 </file>
@@ -666,10 +768,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -694,37 +796,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,14 +810,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -759,14 +831,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -777,9 +841,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -822,9 +886,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,6 +907,37 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -843,6 +945,126 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -852,13 +1074,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,37 +1086,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,85 +1110,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,31 +1122,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,6 +1139,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1055,17 +1172,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,21 +1186,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1112,8 +1208,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,15 +1239,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1145,10 +1247,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1157,133 +1259,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1625,10 +1727,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="13.5"/>
@@ -1636,7 +1738,7 @@
     <col min="1" max="1" width="17.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="31.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="29.25" style="2" customWidth="1"/>
@@ -1780,7 +1882,6 @@
       <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="1"/>
       <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
@@ -1801,7 +1902,6 @@
       <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
         <v>34</v>
       </c>
@@ -1822,7 +1922,6 @@
       <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="1"/>
       <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
@@ -1843,7 +1942,6 @@
       <c r="B9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="1"/>
       <c r="E9" s="2" t="s">
         <v>40</v>
       </c>
@@ -1864,7 +1962,6 @@
       <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="1"/>
       <c r="E10" s="2" t="s">
         <v>43</v>
       </c>
@@ -2112,7 +2209,6 @@
       <c r="B21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="1"/>
       <c r="D21" s="2" t="s">
         <v>86</v>
       </c>
@@ -2139,7 +2235,6 @@
       <c r="B22" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="1"/>
       <c r="E22" s="2" t="s">
         <v>91</v>
       </c>
@@ -2163,7 +2258,6 @@
       <c r="B23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="1"/>
       <c r="D23" s="2" t="s">
         <v>95</v>
       </c>
@@ -2190,7 +2284,6 @@
       <c r="B24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="1"/>
       <c r="D24" s="2" t="s">
         <v>100</v>
       </c>
@@ -2237,8 +2330,6 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
       <c r="E26" s="2" t="s">
         <v>108</v>
       </c>
@@ -2250,8 +2341,6 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
       <c r="E27" s="2" t="s">
         <v>109</v>
       </c>
@@ -2283,8 +2372,6 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
       <c r="E29" s="2" t="s">
         <v>113</v>
       </c>
@@ -2319,8 +2406,6 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
       <c r="F31" s="2" t="s">
         <v>106</v>
       </c>
@@ -2334,7 +2419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" ht="27" spans="1:9">
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2361,8 +2446,6 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="1"/>
       <c r="D33" s="2" t="s">
         <v>122</v>
       </c>
@@ -2383,8 +2466,6 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="1"/>
       <c r="E34" s="2" t="s">
         <v>124</v>
       </c>
@@ -2408,7 +2489,6 @@
       <c r="B35" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="1"/>
       <c r="D35" s="2" t="s">
         <v>128</v>
       </c>
@@ -2475,8 +2555,6 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="1"/>
       <c r="E38" s="2" t="s">
         <v>139</v>
       </c>
@@ -2494,8 +2572,6 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="1"/>
       <c r="D39" s="2" t="s">
         <v>141</v>
       </c>
@@ -2519,9 +2595,6 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
         <v>145</v>
       </c>
@@ -2562,8 +2635,6 @@
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="1"/>
       <c r="D42" s="2" t="s">
         <v>150</v>
       </c>
@@ -2584,7 +2655,6 @@
       <c r="B43" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="1"/>
       <c r="D43" s="2" t="s">
         <v>152</v>
       </c>
@@ -2608,7 +2678,6 @@
       <c r="B44" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="1"/>
       <c r="G44" s="2" t="s">
         <v>155</v>
       </c>
@@ -2626,7 +2695,6 @@
       <c r="B45" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C45" s="1"/>
       <c r="D45" s="2" t="s">
         <v>157</v>
       </c>
@@ -2673,8 +2741,6 @@
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="1"/>
       <c r="D47" s="2" t="s">
         <v>165</v>
       </c>
@@ -2773,7 +2839,6 @@
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="2"/>
       <c r="E51" s="2" t="s">
         <v>182</v>
       </c>
@@ -2791,7 +2856,6 @@
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="2"/>
       <c r="E52" s="2" t="s">
         <v>184</v>
       </c>
@@ -2828,8 +2892,201 @@
         <v>15</v>
       </c>
     </row>
+    <row r="54" ht="27" spans="1:9">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" ht="27" spans="1:9">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" ht="40.5" spans="1:10">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" ht="27" spans="1:10">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" ht="40.5" spans="1:10">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="E61" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="32">
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="B18:B19"/>
@@ -2841,6 +3098,8 @@
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B58:B59"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C5:C11"/>
     <mergeCell ref="C13:C17"/>
@@ -2849,12 +3108,17 @@
     <mergeCell ref="C25:C35"/>
     <mergeCell ref="C36:C45"/>
     <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C58:C59"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="D25:D31"/>
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="D50:D52"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E55:E56"/>
     <mergeCell ref="G25:G27"/>
+    <mergeCell ref="G55:G56"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
